--- a/training/results/results_train_scenarios.xlsx
+++ b/training/results/results_train_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jolka\OneDrive\Dokumenty\mgr\Predictive-ML-in-TTRPG-game-design\training\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713C451D-3131-4B33-B485-3716B40ECDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5F097B-3BBC-45E6-80A6-704E18F36348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>round type + metrics</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>simple_or</t>
+  </si>
+  <si>
+    <t>gpor</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1784,6 +1787,80 @@
       </c>
       <c r="Y19">
         <v>0.9808274470232089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0.72768175988003692</v>
+      </c>
+      <c r="C20">
+        <v>0.52054147486793179</v>
+      </c>
+      <c r="E20">
+        <v>0.7687558367226377</v>
+      </c>
+      <c r="F20">
+        <v>0.4510595358224016</v>
+      </c>
+      <c r="G20">
+        <v>0.59872182980154731</v>
+      </c>
+      <c r="H20">
+        <v>0.7687558367226377</v>
+      </c>
+      <c r="I20">
+        <v>0.4510595358224016</v>
+      </c>
+      <c r="J20">
+        <v>0.59872182980154731</v>
+      </c>
+      <c r="K20">
+        <v>0.75350955971098954</v>
+      </c>
+      <c r="L20">
+        <v>0.43659603094517319</v>
+      </c>
+      <c r="M20">
+        <v>0.60948536831483346</v>
+      </c>
+      <c r="N20">
+        <v>0.73383464502764673</v>
+      </c>
+      <c r="O20">
+        <v>0.40329633366969392</v>
+      </c>
+      <c r="P20">
+        <v>0.64480322906155396</v>
+      </c>
+      <c r="Q20">
+        <v>0.7687558367226377</v>
+      </c>
+      <c r="R20">
+        <v>0.4510595358224016</v>
+      </c>
+      <c r="S20">
+        <v>0.59872182980154731</v>
+      </c>
+      <c r="T20">
+        <v>0.7612813388128965</v>
+      </c>
+      <c r="U20">
+        <v>0.43356878573831148</v>
+      </c>
+      <c r="V20">
+        <v>0.61957618567103934</v>
+      </c>
+      <c r="W20">
+        <v>0.735437155909758</v>
+      </c>
+      <c r="X20">
+        <v>0.40766902119071652</v>
+      </c>
+      <c r="Y20">
+        <v>0.63942145980491083</v>
       </c>
     </row>
   </sheetData>
